--- a/stock_predictor_ai/data/cleaned/PM.xlsx
+++ b/stock_predictor_ai/data/cleaned/PM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4344"/>
+  <dimension ref="A1:F4345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87329,6 +87329,26 @@
         <v>367563</v>
       </c>
     </row>
+    <row r="4345">
+      <c r="A4345" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B4345" t="n">
+        <v>176.6900024414062</v>
+      </c>
+      <c r="C4345" t="n">
+        <v>179.6000061035156</v>
+      </c>
+      <c r="D4345" t="n">
+        <v>176.3600006103516</v>
+      </c>
+      <c r="E4345" t="n">
+        <v>179.5700073242188</v>
+      </c>
+      <c r="F4345" t="n">
+        <v>441504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/PM.xlsx
+++ b/stock_predictor_ai/data/cleaned/PM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4345"/>
+  <dimension ref="A1:F4346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87349,6 +87349,26 @@
         <v>441504</v>
       </c>
     </row>
+    <row r="4346">
+      <c r="A4346" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B4346" t="n">
+        <v>180.9199981689453</v>
+      </c>
+      <c r="C4346" t="n">
+        <v>181.3800048828125</v>
+      </c>
+      <c r="D4346" t="n">
+        <v>179.2899932861328</v>
+      </c>
+      <c r="E4346" t="n">
+        <v>180.5599975585938</v>
+      </c>
+      <c r="F4346" t="n">
+        <v>4322800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/PM.xlsx
+++ b/stock_predictor_ai/data/cleaned/PM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4346"/>
+  <dimension ref="A1:F4347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87369,6 +87369,26 @@
         <v>4322800</v>
       </c>
     </row>
+    <row r="4347">
+      <c r="A4347" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B4347" t="n">
+        <v>179.4600067138672</v>
+      </c>
+      <c r="C4347" t="n">
+        <v>179.7700042724609</v>
+      </c>
+      <c r="D4347" t="n">
+        <v>177.6300048828125</v>
+      </c>
+      <c r="E4347" t="n">
+        <v>178</v>
+      </c>
+      <c r="F4347" t="n">
+        <v>491052</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/PM.xlsx
+++ b/stock_predictor_ai/data/cleaned/PM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4347"/>
+  <dimension ref="A1:F4348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87389,6 +87389,26 @@
         <v>491052</v>
       </c>
     </row>
+    <row r="4348">
+      <c r="A4348" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B4348" t="n">
+        <v>167.5800018310547</v>
+      </c>
+      <c r="C4348" t="n">
+        <v>167.8899993896484</v>
+      </c>
+      <c r="D4348" t="n">
+        <v>163.3800048828125</v>
+      </c>
+      <c r="E4348" t="n">
+        <v>166.5700073242188</v>
+      </c>
+      <c r="F4348" t="n">
+        <v>2321126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/PM.xlsx
+++ b/stock_predictor_ai/data/cleaned/PM.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4348"/>
+  <dimension ref="A1:F4343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87309,106 +87311,6 @@
         <v>7427900</v>
       </c>
     </row>
-    <row r="4344">
-      <c r="A4344" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B4344" t="n">
-        <v>177.5</v>
-      </c>
-      <c r="C4344" t="n">
-        <v>177.5899963378906</v>
-      </c>
-      <c r="D4344" t="n">
-        <v>175.3000030517578</v>
-      </c>
-      <c r="E4344" t="n">
-        <v>175.9499969482422</v>
-      </c>
-      <c r="F4344" t="n">
-        <v>367563</v>
-      </c>
-    </row>
-    <row r="4345">
-      <c r="A4345" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B4345" t="n">
-        <v>176.6900024414062</v>
-      </c>
-      <c r="C4345" t="n">
-        <v>179.6000061035156</v>
-      </c>
-      <c r="D4345" t="n">
-        <v>176.3600006103516</v>
-      </c>
-      <c r="E4345" t="n">
-        <v>179.5700073242188</v>
-      </c>
-      <c r="F4345" t="n">
-        <v>441504</v>
-      </c>
-    </row>
-    <row r="4346">
-      <c r="A4346" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B4346" t="n">
-        <v>180.9199981689453</v>
-      </c>
-      <c r="C4346" t="n">
-        <v>181.3800048828125</v>
-      </c>
-      <c r="D4346" t="n">
-        <v>179.2899932861328</v>
-      </c>
-      <c r="E4346" t="n">
-        <v>180.5599975585938</v>
-      </c>
-      <c r="F4346" t="n">
-        <v>4322800</v>
-      </c>
-    </row>
-    <row r="4347">
-      <c r="A4347" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B4347" t="n">
-        <v>179.4600067138672</v>
-      </c>
-      <c r="C4347" t="n">
-        <v>179.7700042724609</v>
-      </c>
-      <c r="D4347" t="n">
-        <v>177.6300048828125</v>
-      </c>
-      <c r="E4347" t="n">
-        <v>178</v>
-      </c>
-      <c r="F4347" t="n">
-        <v>491052</v>
-      </c>
-    </row>
-    <row r="4348">
-      <c r="A4348" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B4348" t="n">
-        <v>167.5800018310547</v>
-      </c>
-      <c r="C4348" t="n">
-        <v>167.8899993896484</v>
-      </c>
-      <c r="D4348" t="n">
-        <v>163.3800048828125</v>
-      </c>
-      <c r="E4348" t="n">
-        <v>166.5700073242188</v>
-      </c>
-      <c r="F4348" t="n">
-        <v>2321126</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
